--- a/7/2/4/Economía nacional 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/4/Economía nacional 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Serie</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1628,13 +1631,27 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="C75">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D75">
-        <v>-10.3</v>
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76">
+        <v>19.5</v>
+      </c>
+      <c r="C76">
+        <v>-1.1</v>
+      </c>
+      <c r="D76">
+        <v>-5.6</v>
       </c>
     </row>
   </sheetData>
